--- a/Scrape PHEI/2025-04-April/Corporate-Bond-23-April-2025.xlsx
+++ b/Scrape PHEI/2025-04-April/Corporate-Bond-23-April-2025.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tenor(Year)</t>
+          <t>Tenor (Year)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
